--- a/static/data/database.xlsx
+++ b/static/data/database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/design4climate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parvathykrishnank/Documents/GitHub/design4climate/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA67B518-6564-3042-A728-A0667E8A251F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAE2096-D0A6-AD4A-B667-C7792ADF9170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4958,9 +4958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C89D7B-8F37-A94E-AED8-9AA1263A2C6A}">
   <dimension ref="A1:Q1048555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H427" sqref="H427"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25598,7 +25598,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1048555" xr:uid="{B9C89D7B-8F37-A94E-AED8-9AA1263A2C6A}"/>
   <conditionalFormatting sqref="F1:F51 G40:G42 G44:G51 G53:G54 F53:F162 G56:G62 G83:G86 G94:G98 G146:G147 F163:G173 H165:H173 G175:H176 F175:F185 G185 G189:G191 F189:F194 G193:G194 G196:G200 F196:F245 G201:H201 G203:G205 G207:G209 G211 G213:G219 G221:G245 F246:G246 G247:G294 F247:F354 H262:H344 I264 G297:G331 I326:I327 G333:G334 I334 I336:I338 G336:G344 I341 G346:G350 G352:G354 F357:F407 G367:G369 G381 G383 G385:G391 G393 I407:I408">
     <cfRule type="containsText" dxfId="23" priority="86" operator="containsText" text="sharepoint">
       <formula>NOT(ISERROR(SEARCH("sharepoint",F1)))</formula>
